--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.042921.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.042921.xlsx_with_dialog_acts.xlsx
@@ -1003,12 +1003,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1953,12 +1953,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2865,12 +2865,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3663,12 +3663,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3701,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4195,12 +4195,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4271,12 +4271,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4347,12 +4347,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4461,12 +4461,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5031,12 +5031,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5069,12 +5069,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5107,12 +5107,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5183,12 +5183,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5221,12 +5221,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5487,12 +5487,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5753,12 +5753,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6095,12 +6095,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6171,12 +6171,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6475,12 +6475,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6779,12 +6779,12 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7007,12 +7007,12 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7121,12 +7121,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7311,12 +7311,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7653,12 +7653,12 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7767,12 +7767,12 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7805,12 +7805,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7919,12 +7919,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8037,12 +8037,12 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8075,12 +8075,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8189,12 +8189,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9025,12 +9025,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11849,12 +11849,12 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12039,12 +12039,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12305,12 +12305,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12381,12 +12381,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12495,12 +12495,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12951,12 +12951,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13217,12 +13217,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13445,12 +13445,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13749,12 +13749,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13787,12 +13787,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14053,12 +14053,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14319,12 +14319,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14395,12 +14395,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15003,12 +15003,12 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15311,12 +15311,12 @@
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15387,12 +15387,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
